--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,13 +66,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T00:00:00+02:00</t>
+    <t>2025-05-09T00:00:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>RUDAS</t>
+  </si>
+  <si>
+    <t>MCE</t>
   </si>
   <si>
     <t>System URI</t>
@@ -405,7 +408,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -473,18 +476,26 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
         <v>41</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KognitivTestDANDEM.xlsx
+++ b/fhir/ValueSet-KognitivTestDANDEM.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
